--- a/ClosedToMaturedTable.xlsx
+++ b/ClosedToMaturedTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,322 +43,268 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>12010146865</t>
-  </si>
-  <si>
-    <t>12010509979</t>
-  </si>
-  <si>
-    <t>12010133456</t>
-  </si>
-  <si>
-    <t>12010140023</t>
-  </si>
-  <si>
-    <t>90000016084</t>
-  </si>
-  <si>
-    <t>12010110353</t>
-  </si>
-  <si>
-    <t>1201500851</t>
-  </si>
-  <si>
-    <t>12010507920</t>
-  </si>
-  <si>
-    <t>90000021636</t>
-  </si>
-  <si>
-    <t>12010505143</t>
-  </si>
-  <si>
-    <t>12010506568</t>
-  </si>
-  <si>
-    <t>1201500462</t>
-  </si>
-  <si>
-    <t>12010509060</t>
-  </si>
-  <si>
-    <t>12010109925</t>
-  </si>
-  <si>
-    <t>12010507121</t>
-  </si>
-  <si>
-    <t>12010500872</t>
-  </si>
-  <si>
-    <t>12010146646</t>
-  </si>
-  <si>
-    <t>12010511339</t>
-  </si>
-  <si>
-    <t>12010110296</t>
-  </si>
-  <si>
-    <t>90000006798</t>
-  </si>
-  <si>
-    <t>Prescription Point</t>
-  </si>
-  <si>
-    <t>Anower Khan Modern Hospital In</t>
-  </si>
-  <si>
-    <t>Sumona Pharmacy</t>
-  </si>
-  <si>
-    <t>Sanim Pharmacy</t>
-  </si>
-  <si>
-    <t>Medicine Plus</t>
-  </si>
-  <si>
-    <t>Haque Medical Hall</t>
-  </si>
-  <si>
-    <t>Aram Pharmacy</t>
-  </si>
-  <si>
-    <t>Lab Aid Diagonostic</t>
-  </si>
-  <si>
-    <t>Dhoal Pharma</t>
-  </si>
-  <si>
-    <t>Ismail Drug House</t>
-  </si>
-  <si>
-    <t>United Medicin Corner</t>
-  </si>
-  <si>
-    <t>Mowla Drug House</t>
-  </si>
-  <si>
-    <t>Salman Pharmacy</t>
-  </si>
-  <si>
-    <t>Sangita Medical Hall</t>
-  </si>
-  <si>
-    <t>Adorsho Dental Care</t>
-  </si>
-  <si>
-    <t>Maa Pharmacy</t>
-  </si>
-  <si>
-    <t>Bhai Bhai Pharmacy</t>
-  </si>
-  <si>
-    <t>Laser Chain And Skin Center Lt</t>
-  </si>
-  <si>
-    <t>Tivoli Pharmacy</t>
-  </si>
-  <si>
-    <t>Nabab Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BananiGulshanDhaka                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhanmondi 8Dhaka                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matabar BariPost Office RoadKhilkhet                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Co operative MarketShahabagDhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shahabag ,Biponi Bitan                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">108 A East Raza BazarDhaka                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cha 97 Main RoadNorth Badda                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sector 06UttaraDhaka                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Co-Operative Medicine Market,Shahbag,Dhaka             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">148 Aziz Co Operative MarketShahbag Dhaka                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaynal MarketUttaraDhaka                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">309 Free School StreetPukar ParDhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">499 East GawairUttaraDhaka                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamarpara Natun BazarUttaraDhaka                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Razabari Chowrasta UttaraDhaka                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">105 A 16 1 Shaheed Buddhijibi Road ZafrabadRayer Bazar      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Co Operative MarketShahbagDhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hossain Plaza House 01Road 15 New DhanmondiDhaka            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 Shahabug Biponi BitanShahabugDhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road-5,Block-4 Metro Housing,Bosila                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM62                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM11                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB11                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD83                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB12                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD42                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-814937     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-793320     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-879974     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-895935     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-895766     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-880008     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-879401     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-815687     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-896731     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-896598     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-880785     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-880821     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-880668     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-880147     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-880038     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-881593     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-880856     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-858642     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-898709     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-881694     </t>
-  </si>
-  <si>
-    <t>20 Nov 2019</t>
-  </si>
-  <si>
-    <t>21 Oct 2019</t>
-  </si>
-  <si>
-    <t>18 Feb 2020</t>
-  </si>
-  <si>
-    <t>09 Mar 2020</t>
-  </si>
-  <si>
-    <t>21 Nov 2019</t>
-  </si>
-  <si>
-    <t>10 Mar 2020</t>
-  </si>
-  <si>
-    <t>19 Feb 2020</t>
-  </si>
-  <si>
-    <t>20 Feb 2020</t>
-  </si>
-  <si>
-    <t>22 Jan 2020</t>
-  </si>
-  <si>
-    <t>12 Mar 2020</t>
-  </si>
-  <si>
-    <t>21 Feb 2020</t>
+    <t>51051100247</t>
+  </si>
+  <si>
+    <t>51051001163</t>
+  </si>
+  <si>
+    <t>51051100059</t>
+  </si>
+  <si>
+    <t>51052150018</t>
+  </si>
+  <si>
+    <t>51051000054</t>
+  </si>
+  <si>
+    <t>51052000230</t>
+  </si>
+  <si>
+    <t>51052104073</t>
+  </si>
+  <si>
+    <t>51051001088</t>
+  </si>
+  <si>
+    <t>51052103924</t>
+  </si>
+  <si>
+    <t>51051100017</t>
+  </si>
+  <si>
+    <t>51051004236</t>
+  </si>
+  <si>
+    <t>51052103860</t>
+  </si>
+  <si>
+    <t>51051004217</t>
+  </si>
+  <si>
+    <t>51052138722</t>
+  </si>
+  <si>
+    <t>51051001745</t>
+  </si>
+  <si>
+    <t>51051101809</t>
+  </si>
+  <si>
+    <t>51052438699</t>
+  </si>
+  <si>
+    <t>51051001726</t>
+  </si>
+  <si>
+    <t>51052108838</t>
+  </si>
+  <si>
+    <t>51052141597</t>
+  </si>
+  <si>
+    <t>Azad Pharmacy</t>
+  </si>
+  <si>
+    <t>Shampa Medical Hall</t>
+  </si>
+  <si>
+    <t>Habib Medical Store</t>
+  </si>
+  <si>
+    <t>Al Islam Medical Hall</t>
+  </si>
+  <si>
+    <t>Rina Clinic</t>
+  </si>
+  <si>
+    <t>Medicine Corner</t>
+  </si>
+  <si>
+    <t>Sefa Medical Hall</t>
+  </si>
+  <si>
+    <t>Janata Medical Hall</t>
+  </si>
+  <si>
+    <t>Bidhan Medical Hall</t>
+  </si>
+  <si>
+    <t>Laxmi Narayan Pharmacy</t>
+  </si>
+  <si>
+    <t>Ridam Madical Hall</t>
+  </si>
+  <si>
+    <t>Akash Medical Hall</t>
+  </si>
+  <si>
+    <t>Kawser Medical Hall</t>
+  </si>
+  <si>
+    <t>Seba Pharmacy</t>
+  </si>
+  <si>
+    <t>Neel Ratan Pharmacy</t>
+  </si>
+  <si>
+    <t>Pal Medical Hall</t>
+  </si>
+  <si>
+    <t>Sharif Medical Hall</t>
+  </si>
+  <si>
+    <t>Mahmud Medical Hall</t>
+  </si>
+  <si>
+    <t>Salehi Medical Hall</t>
+  </si>
+  <si>
+    <t>Dr Jagodish Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patarhat Mehendiganj Barisal                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muladi Barisal                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadar Road Barisal                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilogram Gouranadi Barisal                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowmatha Barisal Metro                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharikal Gouranadi Barisal                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulania Mehendiganj Barisal                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bashail Agaljara                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakerganj Barisal                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baramagra Paisherhat                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satla Wajirpur Barisal                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amirgonj paterhat                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawnia Main Road Barisal                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaloskathi Bakerganj                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinema Hall Road Bakerganj Barisal                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kauria Hijla Barisal                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akota Bazar Muladi Barisal                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khejuria Bagda Agailjhara Barisal                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM91                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM92                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM46                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM93                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468671     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468633     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468437     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468657     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468685     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468420     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468643     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468384     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468762     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468783     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468736     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468487     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468450     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468431     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468489     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468570     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468754     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468529     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468667     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468618     </t>
+  </si>
+  <si>
+    <t>02 Apr 2020</t>
   </si>
 </sst>
 </file>
@@ -777,22 +723,22 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H2">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>67705.82000000001</v>
+        <v>33165.96</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -809,22 +755,22 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H3">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>27924.96</v>
+        <v>29146.41</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -841,13 +787,13 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -856,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>19494.96</v>
+        <v>15518.26</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -873,22 +819,22 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15462.2</v>
+        <v>10132.59</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -902,25 +848,25 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15043.52</v>
+        <v>10025.86</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -934,16 +880,16 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -952,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12281.15</v>
+        <v>9928.610000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -966,16 +912,16 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -984,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10998.34</v>
+        <v>9895.809999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -998,25 +944,25 @@
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H9">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>32820.47</v>
+        <v>9701.629999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1030,25 +976,25 @@
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>19989.95</v>
+        <v>9000.75</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1062,25 +1008,25 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>15021.24</v>
+        <v>8591.959999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1094,25 +1040,25 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>10031.38</v>
+        <v>7882.98</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1126,25 +1072,25 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H13">
         <v>30</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>9963.48</v>
+        <v>7880.36</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1158,25 +1104,25 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H14">
         <v>30</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>9054.82</v>
+        <v>7318.31</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1190,25 +1136,25 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H15">
         <v>30</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5043.37</v>
+        <v>7135.48</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1222,25 +1168,25 @@
         <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H16">
         <v>30</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4985.83</v>
+        <v>5771.16</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1254,25 +1200,25 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H17">
         <v>30</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>20115.23</v>
+        <v>5085.81</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1286,25 +1232,25 @@
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H18">
         <v>30</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>20039.82</v>
+        <v>5054.82</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1318,25 +1264,25 @@
         <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H19">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>28447.25</v>
+        <v>5003.16</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1350,25 +1296,25 @@
         <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>15274.02</v>
+        <v>4994.17</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1382,25 +1328,25 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H21">
         <v>30</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>12038.22</v>
+        <v>4737.62</v>
       </c>
     </row>
   </sheetData>

--- a/ClosedToMaturedTable.xlsx
+++ b/ClosedToMaturedTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,301 +43,298 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>250614141803</t>
-  </si>
-  <si>
-    <t>25061401566</t>
-  </si>
-  <si>
-    <t>25061100805</t>
-  </si>
-  <si>
-    <t>25061001575</t>
-  </si>
-  <si>
-    <t>25061103025</t>
-  </si>
-  <si>
-    <t>90000014829</t>
-  </si>
-  <si>
-    <t>25061004617</t>
-  </si>
-  <si>
-    <t>25012100250</t>
-  </si>
-  <si>
-    <t>25061400977</t>
-  </si>
-  <si>
-    <t>25012101253</t>
-  </si>
-  <si>
-    <t>25061000650</t>
-  </si>
-  <si>
-    <t>25061414138</t>
-  </si>
-  <si>
-    <t>25061401061</t>
-  </si>
-  <si>
-    <t>25061006737</t>
-  </si>
-  <si>
-    <t>25061401002</t>
-  </si>
-  <si>
-    <t>25061414107</t>
-  </si>
-  <si>
-    <t>25061414070</t>
-  </si>
-  <si>
-    <t>25061009908</t>
-  </si>
-  <si>
-    <t>25061414031</t>
-  </si>
-  <si>
-    <t>25061401200</t>
-  </si>
-  <si>
-    <t>Narayanpur Tower &amp; Trama Cente</t>
-  </si>
-  <si>
-    <t>Kuddus Madical Hall</t>
-  </si>
-  <si>
-    <t>Mother Medical hall</t>
-  </si>
-  <si>
-    <t>Moon Hospital</t>
-  </si>
-  <si>
-    <t>Medicine Corner</t>
-  </si>
-  <si>
-    <t>Bismillah Medical Hall</t>
-  </si>
-  <si>
-    <t>Seba Medicine Corner</t>
-  </si>
-  <si>
-    <t>Amin Pharmacy</t>
-  </si>
-  <si>
-    <t>Bandan Madical Hall</t>
-  </si>
-  <si>
-    <t>Ibna Sina Medical Hall</t>
-  </si>
-  <si>
-    <t>New Pharmacy</t>
-  </si>
-  <si>
-    <t>Ananda Pharmacy</t>
-  </si>
-  <si>
-    <t>Datta Pharmacy</t>
-  </si>
-  <si>
-    <t>Iqbal Medical Hall</t>
-  </si>
-  <si>
-    <t>Janashaba Pharmacy</t>
-  </si>
-  <si>
-    <t>Nova Madical Centar</t>
-  </si>
-  <si>
-    <t>Kazi Medicine House</t>
-  </si>
-  <si>
-    <t>S R Medical Hall</t>
-  </si>
-  <si>
-    <t>Hazi Ali Arshad Pharmacy</t>
-  </si>
-  <si>
-    <t>M B Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narayanpur ,Motlab,Chandpur                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogi Bazar ,Monohorgonj ,Comilla                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalir Bazar Road, Faridgonj ,Chandpur                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,Stadium Road ,Chandpur                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suchipara Purbo Bazar,Shahrasti,Chandpur                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bongshi Steel Bridge,Roypur,Laxmipur                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aligonj ,Hazigonj, Chandpur                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bashabari Bazar,Roypur ,Laxmipur                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tin Bazar Sonapur,Ramgonj ,Laksmipur                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paniala,Ramgonj,Laxmipur                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Road,Kachua Bazar,Kachua,Chandpur                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Ashutosh Ach Baburhat,Chandpur                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazigonj Tower First Floor Hazigonj,chandpur                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohespur, Barura,Comilla                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Wark Bazar, Saharasti,Chandpur                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandpur Ralgate,Laksham ,ComillaComilla                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modaffargonj,Laksham,Comilla                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bizra Bazar ,Comilla DL No 462 A B DL No 462 A B            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandargow Bazar,Keyari Dadghar,Monohorgonj,Comilla          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adda Bazar, Barura ,Comilla                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL93                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL82                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL52                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL24                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL84                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL74                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL75                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361071     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-360486     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-360962     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-360318     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-360799     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361080     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-360849     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361305     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361370     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361287     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361809     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361472     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361897     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361479     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361945     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361948     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361822     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361776     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-362027     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361657     </t>
-  </si>
-  <si>
-    <t>16 May 2020</t>
-  </si>
-  <si>
-    <t>17 May 2020</t>
-  </si>
-  <si>
-    <t>18 May 2020</t>
+    <t>90000031690</t>
+  </si>
+  <si>
+    <t>12010506859</t>
+  </si>
+  <si>
+    <t>12010145506</t>
+  </si>
+  <si>
+    <t>90000013665</t>
+  </si>
+  <si>
+    <t>12010509627</t>
+  </si>
+  <si>
+    <t>12010500952</t>
+  </si>
+  <si>
+    <t>12010502027</t>
+  </si>
+  <si>
+    <t>12010506442</t>
+  </si>
+  <si>
+    <t>12010124433</t>
+  </si>
+  <si>
+    <t>12010500490</t>
+  </si>
+  <si>
+    <t>12010511617</t>
+  </si>
+  <si>
+    <t>90000021636</t>
+  </si>
+  <si>
+    <t>90000019237</t>
+  </si>
+  <si>
+    <t>12010510009</t>
+  </si>
+  <si>
+    <t>12010501282</t>
+  </si>
+  <si>
+    <t>12010508574</t>
+  </si>
+  <si>
+    <t>12010511346</t>
+  </si>
+  <si>
+    <t>1201500479</t>
+  </si>
+  <si>
+    <t>12010508986</t>
+  </si>
+  <si>
+    <t>G.D.C Pharmacy</t>
+  </si>
+  <si>
+    <t>Kushtia Pharmacy</t>
+  </si>
+  <si>
+    <t>Rafi Pharmacy</t>
+  </si>
+  <si>
+    <t>Eastern Care Hospital Limited.</t>
+  </si>
+  <si>
+    <t>Ayon Pharmacy</t>
+  </si>
+  <si>
+    <t>Zakia Pharmacy</t>
+  </si>
+  <si>
+    <t>PM Pharma</t>
+  </si>
+  <si>
+    <t>Sajid Pharmacy</t>
+  </si>
+  <si>
+    <t>Janata Pharmacy</t>
+  </si>
+  <si>
+    <t>Labaid Cardiac Hospital</t>
+  </si>
+  <si>
+    <t>Prime Orthopedic And General H</t>
+  </si>
+  <si>
+    <t>Dhoal Pharma</t>
+  </si>
+  <si>
+    <t>BRITISH AMERICAN TOBACO CURE &amp;</t>
+  </si>
+  <si>
+    <t>Islamia Pharmacy</t>
+  </si>
+  <si>
+    <t>Jonata Pharmacy</t>
+  </si>
+  <si>
+    <t>Ashrafi Pharmacy</t>
+  </si>
+  <si>
+    <t>HAZI PHARMACY</t>
+  </si>
+  <si>
+    <t>Babul Pharmacy</t>
+  </si>
+  <si>
+    <t>Basundhara Eye Hospital And Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheba House, Plot No-34, Road No-46, Gulshan-2, Dhaka       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 Townhall Govt Market MohammadpurDhaka                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">148 3 GazmohalHazaribagDhaka                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/3, Gate - 2,Block - A,Lalmatia,Dhaka-1207                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karwanbazar                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">105 East Tejturi BazarTejgaonDhaka                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 Govt Townhal MarketMohammadpurDhaka                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaymoli Housing R 6PC culture SkhertechMohammadpur         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranavola RoadKamarparaUttara                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhanmondi Dhaka                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College gate MohammadpurDhaka                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aziz Co-Operative Medicine Market,Shahbag,Dhaka             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New DOSH,Mohakhali,Dhaka                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dakkhin Khan                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HazaribagVagolpur Company Gate Dhaka                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPRC Geneva Camp Humayun RoadMohammadpurDhaka               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near Hazi CampAshkonaUttara                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">136 Elephant RoadCompath Diagnostic Centre                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot 474 Block D BasundharaDhaka                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD62                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD82                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-895930     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958248     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958683     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958017     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958448     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958118     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958430     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958181     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-957893     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-865387     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-959559     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-959209     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-979730     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-937982     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-959674     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-959691     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-959152     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958889     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-959587     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-937513     </t>
+  </si>
+  <si>
+    <t>09 Mar 2020</t>
+  </si>
+  <si>
+    <t>07 Jun 2020</t>
+  </si>
+  <si>
+    <t>30 Jan 2020</t>
+  </si>
+  <si>
+    <t>08 Jun 2020</t>
+  </si>
+  <si>
+    <t>28 Jun 2020</t>
+  </si>
+  <si>
+    <t>09 May 2020</t>
   </si>
 </sst>
 </file>
@@ -750,28 +747,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>60001.93</v>
+        <v>23463.15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -782,19 +779,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -803,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>44833.75</v>
+        <v>22956.73</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -814,19 +811,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -835,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15024.7</v>
+        <v>20283.67</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -846,19 +843,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -867,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10871.76</v>
+        <v>16588.55</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -878,19 +875,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -899,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10092.48</v>
+        <v>13895.43</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -910,19 +907,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -931,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10011.18</v>
+        <v>13111.97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -942,19 +939,19 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -963,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8104.78</v>
+        <v>12136.97</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -974,28 +971,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H9">
         <v>30</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>30036.39</v>
+        <v>7450.95</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1006,28 +1003,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H10">
         <v>30</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>19615.88</v>
+        <v>4875.85</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1038,28 +1035,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>9983.190000000001</v>
+        <v>75119.72</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1067,31 +1064,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>68091.95</v>
+        <v>49662.61</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1099,31 +1096,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H13">
         <v>30</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>49172.43</v>
+        <v>25723.63</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1131,31 +1128,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>39301.9</v>
+        <v>19995.17</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1163,31 +1160,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>19976.76</v>
+        <v>10560.6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1195,31 +1192,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H16">
         <v>30</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>15020.65</v>
+        <v>9754.27</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1227,31 +1224,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H17">
         <v>30</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>14918.6</v>
+        <v>9711.41</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1259,31 +1256,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H18">
         <v>30</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>14899.07</v>
+        <v>9586.780000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1291,31 +1288,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H19">
         <v>30</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>14881.57</v>
+        <v>9529.75</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1323,31 +1320,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H20">
         <v>30</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>10054.03</v>
+        <v>7421.69</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1355,31 +1352,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
         <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>10027.38</v>
+        <v>6343.21</v>
       </c>
     </row>
   </sheetData>
